--- a/ValueSet-R5-data-types-for-R4.xlsx
+++ b/ValueSet-R5-data-types-for-R4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="214">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -107,7 +107,6 @@
 * `http://hl7.org/fhir/fhir-types#Attachment`
 * `http://hl7.org/fhir/fhir-types#BackboneElement`
 * `http://hl7.org/fhir/fhir-types#CodeableConcept`
-* `http://hl7.org/fhir/fhir-types#CodeableReference`
 * `http://hl7.org/fhir/fhir-types#Coding`
 * `http://hl7.org/fhir/fhir-types#ContactDetail`
 * `http://hl7.org/fhir/fhir-types#ContactPoint`
@@ -144,27 +143,246 @@
 * `http://hl7.org/fhir/fhir-types#base64Binary`
 * `http://hl7.org/fhir/fhir-types#boolean`
 * `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#canonical`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
+* `http://hl7.org/fhir/fhir-types#code`
 * `http://hl7.org/fhir/fhir-types#code`
 * `http://hl7.org/fhir/fhir-types#date`
+* `http://hl7.org/fhir/fhir-types#date`
+* `http://hl7.org/fhir/fhir-types#date`
+* `http://hl7.org/fhir/fhir-types#date`
+* `http://hl7.org/fhir/fhir-types#dateTime`
+* `http://hl7.org/fhir/fhir-types#dateTime`
+* `http://hl7.org/fhir/fhir-types#dateTime`
 * `http://hl7.org/fhir/fhir-types#dateTime`
 * `http://hl7.org/fhir/fhir-types#decimal`
+* `http://hl7.org/fhir/fhir-types#decimal`
+* `http://hl7.org/fhir/fhir-types#decimal`
+* `http://hl7.org/fhir/fhir-types#decimal`
+* `http://hl7.org/fhir/fhir-types#decimal`
+* `http://hl7.org/fhir/fhir-types#decimal`
+* `http://hl7.org/fhir/fhir-types#decimal`
+* `http://hl7.org/fhir/fhir-types#decimal`
+* `http://hl7.org/fhir/fhir-types#decimal`
+* `http://hl7.org/fhir/fhir-types#decimal`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
+* `http://hl7.org/fhir/fhir-types#id`
 * `http://hl7.org/fhir/fhir-types#id`
 * `http://hl7.org/fhir/fhir-types#instant`
 * `http://hl7.org/fhir/fhir-types#integer`
+* `http://hl7.org/fhir/fhir-types#integer`
+* `http://hl7.org/fhir/fhir-types#integer`
+* `http://hl7.org/fhir/fhir-types#integer`
+* `http://hl7.org/fhir/fhir-types#integer`
+* `http://hl7.org/fhir/fhir-types#integer`
+* `http://hl7.org/fhir/fhir-types#integer`
+* `http://hl7.org/fhir/fhir-types#integer`
+* `http://hl7.org/fhir/fhir-types#integer`
+* `http://hl7.org/fhir/fhir-types#integer`
+* `http://hl7.org/fhir/fhir-types#markdown`
+* `http://hl7.org/fhir/fhir-types#markdown`
+* `http://hl7.org/fhir/fhir-types#markdown`
+* `http://hl7.org/fhir/fhir-types#markdown`
+* `http://hl7.org/fhir/fhir-types#markdown`
+* `http://hl7.org/fhir/fhir-types#markdown`
+* `http://hl7.org/fhir/fhir-types#markdown`
+* `http://hl7.org/fhir/fhir-types#markdown`
+* `http://hl7.org/fhir/fhir-types#markdown`
+* `http://hl7.org/fhir/fhir-types#markdown`
 * `http://hl7.org/fhir/fhir-types#markdown`
 * `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
+* `http://hl7.org/fhir/fhir-types#oid`
 * `http://hl7.org/fhir/fhir-types#positiveInt`
+* `http://hl7.org/fhir/fhir-types#positiveInt`
+* `http://hl7.org/fhir/fhir-types#positiveInt`
+* `http://hl7.org/fhir/fhir-types#positiveInt`
+* `http://hl7.org/fhir/fhir-types#positiveInt`
+* `http://hl7.org/fhir/fhir-types#positiveInt`
+* `http://hl7.org/fhir/fhir-types#positiveInt`
+* `http://hl7.org/fhir/fhir-types#positiveInt`
+* `http://hl7.org/fhir/fhir-types#positiveInt`
+* `http://hl7.org/fhir/fhir-types#positiveInt`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
+* `http://hl7.org/fhir/fhir-types#string`
 * `http://hl7.org/fhir/fhir-types#string`
 * `http://hl7.org/fhir/fhir-types#time`
 * `http://hl7.org/fhir/fhir-types#unsignedInt`
+* `http://hl7.org/fhir/fhir-types#unsignedInt`
+* `http://hl7.org/fhir/fhir-types#unsignedInt`
+* `http://hl7.org/fhir/fhir-types#unsignedInt`
+* `http://hl7.org/fhir/fhir-types#unsignedInt`
+* `http://hl7.org/fhir/fhir-types#unsignedInt`
+* `http://hl7.org/fhir/fhir-types#unsignedInt`
+* `http://hl7.org/fhir/fhir-types#unsignedInt`
+* `http://hl7.org/fhir/fhir-types#unsignedInt`
+* `http://hl7.org/fhir/fhir-types#unsignedInt`
+* `http://hl7.org/fhir/fhir-types#unsignedInt`
+* `http://hl7.org/fhir/fhir-types#unsignedInt`
+* `http://hl7.org/fhir/fhir-types#unsignedInt`
 * `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#uri`
+* `http://hl7.org/fhir/fhir-types#url`
+* `http://hl7.org/fhir/fhir-types#url`
+* `http://hl7.org/fhir/fhir-types#url`
+* `http://hl7.org/fhir/fhir-types#url`
+* `http://hl7.org/fhir/fhir-types#url`
+* `http://hl7.org/fhir/fhir-types#url`
 * `http://hl7.org/fhir/fhir-types#url`
 * `http://hl7.org/fhir/fhir-types#uuid`
 * `http://hl7.org/fhir/fhir-types#xhtml`
 Following are the generation technical comments:
-All concepts in the comparison are have code literals listed as identical.
+One or more source concepts are either not mapped or broader than their targets, so the value set relationship is broadened.
 The source value set has more active concepts (231) than the target (64), so the source is broader than the target.
-All concepts in the comparison are listed as identical.
+One or more source concepts are either not mapped or broader than their targets, so the value set relationship is broadened.
 The source value set has more active concepts (64) than the target (63), so the source is broader than the target.</t>
   </si>
   <si>
@@ -271,6 +489,9 @@
   </si>
   <si>
     <t>CodeSystem</t>
+  </si>
+  <si>
+    <t>CodeableReference</t>
   </si>
   <si>
     <t>Communication</t>
@@ -995,7 +1216,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B174"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2394,7 +2615,15 @@
         <v>202</v>
       </c>
       <c r="B174" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
         <v>203</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2404,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2412,36 +2641,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s" s="2">
         <v>30</v>
@@ -2458,13 +2687,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>31</v>
@@ -2481,13 +2710,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>32</v>
@@ -2504,13 +2733,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>33</v>
@@ -2527,13 +2756,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>34</v>
@@ -2550,13 +2779,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>35</v>
@@ -2573,13 +2802,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>36</v>
@@ -2596,13 +2825,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>37</v>
@@ -2619,13 +2848,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -2642,13 +2871,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>39</v>
@@ -2665,13 +2894,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>40</v>
@@ -2688,13 +2917,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>41</v>
@@ -2711,13 +2940,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>42</v>
@@ -2734,13 +2963,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>43</v>
@@ -2757,13 +2986,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>44</v>
@@ -2780,13 +3009,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>45</v>
@@ -2803,13 +3032,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>46</v>
@@ -2826,13 +3055,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>47</v>
@@ -2849,13 +3078,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>48</v>
@@ -2872,13 +3101,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>49</v>
@@ -2895,13 +3124,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>50</v>
@@ -2918,13 +3147,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>51</v>
@@ -2941,13 +3170,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>52</v>
@@ -2964,13 +3193,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>53</v>
@@ -2987,13 +3216,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>54</v>
@@ -3010,13 +3239,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>55</v>
@@ -3033,13 +3262,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>56</v>
@@ -3056,13 +3285,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>57</v>
@@ -3079,13 +3308,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>58</v>
@@ -3102,13 +3331,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>59</v>
@@ -3125,13 +3354,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>60</v>
@@ -3148,13 +3377,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>61</v>
@@ -3171,13 +3400,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>62</v>
@@ -3194,13 +3423,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>63</v>
@@ -3217,13 +3446,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>64</v>
@@ -3240,13 +3469,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>65</v>
@@ -3263,13 +3492,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>66</v>
@@ -3286,13 +3515,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>67</v>
@@ -3309,13 +3538,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>68</v>
@@ -3332,13 +3561,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>69</v>
@@ -3355,13 +3584,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>70</v>
@@ -3378,13 +3607,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>71</v>
@@ -3401,13 +3630,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>72</v>
@@ -3424,13 +3653,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>73</v>
@@ -3447,13 +3676,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>74</v>
@@ -3470,13 +3699,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>75</v>
@@ -3493,13 +3722,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>76</v>
@@ -3516,13 +3745,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
@@ -3539,13 +3768,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>78</v>
@@ -3562,13 +3791,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>79</v>
@@ -3585,13 +3814,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>80</v>
@@ -3608,13 +3837,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>81</v>
@@ -3631,13 +3860,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>82</v>
@@ -3654,13 +3883,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>83</v>
@@ -3677,13 +3906,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>84</v>
@@ -3700,13 +3929,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>85</v>
@@ -3723,13 +3952,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>86</v>
@@ -3746,13 +3975,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>87</v>
@@ -3769,13 +3998,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>88</v>
@@ -3792,13 +4021,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>89</v>
@@ -3815,13 +4044,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>90</v>
@@ -3838,13 +4067,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>91</v>
@@ -3861,13 +4090,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>92</v>
@@ -3884,13 +4113,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>93</v>
@@ -3907,13 +4136,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>94</v>
@@ -3930,13 +4159,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>95</v>
@@ -3953,13 +4182,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>96</v>
@@ -3976,13 +4205,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>97</v>
@@ -3999,13 +4228,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>98</v>
@@ -4022,13 +4251,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>99</v>
@@ -4045,13 +4274,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>100</v>
@@ -4068,13 +4297,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>101</v>
@@ -4091,13 +4320,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>102</v>
@@ -4114,13 +4343,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>103</v>
@@ -4137,13 +4366,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>104</v>
@@ -4160,13 +4389,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>105</v>
@@ -4183,13 +4412,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>106</v>
@@ -4206,13 +4435,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>107</v>
@@ -4229,13 +4458,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>108</v>
@@ -4252,13 +4481,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>109</v>
@@ -4275,13 +4504,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>110</v>
@@ -4298,13 +4527,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>111</v>
@@ -4321,13 +4550,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>112</v>
@@ -4344,13 +4573,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>113</v>
@@ -4367,13 +4596,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>114</v>
@@ -4390,13 +4619,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>115</v>
@@ -4413,13 +4642,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>116</v>
@@ -4436,13 +4665,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>117</v>
@@ -4459,13 +4688,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>118</v>
@@ -4482,13 +4711,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>119</v>
@@ -4505,13 +4734,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>120</v>
@@ -4528,13 +4757,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>121</v>
@@ -4551,13 +4780,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>122</v>
@@ -4574,13 +4803,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>123</v>
@@ -4597,13 +4826,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>124</v>
@@ -4620,13 +4849,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>125</v>
@@ -4643,13 +4872,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>126</v>
@@ -4666,13 +4895,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>127</v>
@@ -4689,13 +4918,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>128</v>
@@ -4712,13 +4941,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>129</v>
@@ -4735,13 +4964,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>130</v>
@@ -4758,13 +4987,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>131</v>
@@ -4781,13 +5010,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>132</v>
@@ -4804,13 +5033,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>133</v>
@@ -4827,13 +5056,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>134</v>
@@ -4850,13 +5079,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>135</v>
@@ -4873,13 +5102,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>136</v>
@@ -4896,13 +5125,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>137</v>
@@ -4919,13 +5148,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>138</v>
@@ -4942,13 +5171,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>139</v>
@@ -4965,13 +5194,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>140</v>
@@ -4988,13 +5217,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>141</v>
@@ -5011,13 +5240,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>142</v>
@@ -5034,13 +5263,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>143</v>
@@ -5057,13 +5286,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>144</v>
@@ -5080,13 +5309,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>145</v>
@@ -5103,13 +5332,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>146</v>
@@ -5126,13 +5355,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>147</v>
@@ -5149,13 +5378,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>148</v>
@@ -5172,13 +5401,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>149</v>
@@ -5195,13 +5424,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>150</v>
@@ -5218,13 +5447,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>151</v>
@@ -5241,13 +5470,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>152</v>
@@ -5264,13 +5493,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>153</v>
@@ -5287,13 +5516,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>154</v>
@@ -5310,13 +5539,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D127" t="s" s="2">
         <v>155</v>
@@ -5333,13 +5562,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>156</v>
@@ -5356,13 +5585,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>157</v>
@@ -5379,13 +5608,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>158</v>
@@ -5402,13 +5631,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>159</v>
@@ -5425,13 +5654,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D132" t="s" s="2">
         <v>160</v>
@@ -5448,13 +5677,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>161</v>
@@ -5471,13 +5700,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>162</v>
@@ -5494,13 +5723,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>163</v>
@@ -5517,13 +5746,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>164</v>
@@ -5540,13 +5769,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D137" t="s" s="2">
         <v>165</v>
@@ -5563,13 +5792,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>166</v>
@@ -5586,13 +5815,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>167</v>
@@ -5609,13 +5838,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>168</v>
@@ -5632,13 +5861,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>169</v>
@@ -5655,13 +5884,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D142" t="s" s="2">
         <v>170</v>
@@ -5678,13 +5907,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>171</v>
@@ -5701,13 +5930,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>172</v>
@@ -5724,13 +5953,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>173</v>
@@ -5747,13 +5976,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>174</v>
@@ -5770,13 +5999,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>175</v>
@@ -5793,13 +6022,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>176</v>
@@ -5816,13 +6045,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D149" t="s" s="2">
         <v>177</v>
@@ -5839,13 +6068,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D150" t="s" s="2">
         <v>178</v>
@@ -5862,13 +6091,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>179</v>
@@ -5885,13 +6114,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>180</v>
@@ -5908,13 +6137,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>181</v>
@@ -5931,13 +6160,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D154" t="s" s="2">
         <v>182</v>
@@ -5954,13 +6183,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>183</v>
@@ -5977,13 +6206,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>184</v>
@@ -6000,13 +6229,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D157" t="s" s="2">
         <v>185</v>
@@ -6023,13 +6252,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>186</v>
@@ -6046,13 +6275,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>187</v>
@@ -6069,13 +6298,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>188</v>
@@ -6092,13 +6321,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>189</v>
@@ -6115,13 +6344,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>190</v>
@@ -6138,13 +6367,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>191</v>
@@ -6161,13 +6390,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>192</v>
@@ -6184,13 +6413,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>193</v>
@@ -6207,13 +6436,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>194</v>
@@ -6230,13 +6459,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>195</v>
@@ -6253,13 +6482,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>196</v>
@@ -6276,13 +6505,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>197</v>
@@ -6299,13 +6528,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>198</v>
@@ -6322,13 +6551,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>199</v>
@@ -6345,13 +6574,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>200</v>
@@ -6363,6 +6592,29 @@
         <v>13</v>
       </c>
       <c r="G172" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="D173" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="E173" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="F173" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s" s="2">
         <v>13</v>
       </c>
     </row>
